--- a/6 glm models/2 historical performance/evaluation_Data.xlsx
+++ b/6 glm models/2 historical performance/evaluation_Data.xlsx
@@ -3297,7 +3297,7 @@
         <v>0.25</v>
       </c>
       <c r="F122" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G122" t="n">
         <v>0.0</v>
@@ -3323,7 +3323,7 @@
         <v>0.5</v>
       </c>
       <c r="F123" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G123" t="n">
         <v>0.0</v>
@@ -3349,7 +3349,7 @@
         <v>1.0</v>
       </c>
       <c r="F124" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G124" t="n">
         <v>0.0</v>
@@ -3375,7 +3375,7 @@
         <v>0.25</v>
       </c>
       <c r="F125" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G125" t="n">
         <v>0.0</v>
@@ -3401,7 +3401,7 @@
         <v>0.5</v>
       </c>
       <c r="F126" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G126" t="n">
         <v>0.0</v>
@@ -3427,7 +3427,7 @@
         <v>1.0</v>
       </c>
       <c r="F127" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G127" t="n">
         <v>0.0</v>
@@ -3453,7 +3453,7 @@
         <v>0.25</v>
       </c>
       <c r="F128" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G128" t="n">
         <v>0.0</v>
@@ -3479,7 +3479,7 @@
         <v>0.5</v>
       </c>
       <c r="F129" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G129" t="n">
         <v>0.0</v>
@@ -3505,7 +3505,7 @@
         <v>1.0</v>
       </c>
       <c r="F130" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G130" t="n">
         <v>0.0</v>
@@ -3531,7 +3531,7 @@
         <v>0.25</v>
       </c>
       <c r="F131" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G131" t="n">
         <v>0.0</v>
@@ -3557,7 +3557,7 @@
         <v>0.5</v>
       </c>
       <c r="F132" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G132" t="n">
         <v>0.0</v>
@@ -3583,7 +3583,7 @@
         <v>1.0</v>
       </c>
       <c r="F133" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G133" t="n">
         <v>0.0</v>
@@ -3609,7 +3609,7 @@
         <v>0.25</v>
       </c>
       <c r="F134" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G134" t="n">
         <v>0.0</v>
@@ -3635,7 +3635,7 @@
         <v>0.5</v>
       </c>
       <c r="F135" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G135" t="n">
         <v>0.0</v>
@@ -3661,7 +3661,7 @@
         <v>1.0</v>
       </c>
       <c r="F136" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
@@ -3687,7 +3687,7 @@
         <v>0.25</v>
       </c>
       <c r="F137" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G137" t="n">
         <v>0.0</v>
@@ -3713,7 +3713,7 @@
         <v>0.5</v>
       </c>
       <c r="F138" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G138" t="n">
         <v>0.0</v>
@@ -3739,7 +3739,7 @@
         <v>1.0</v>
       </c>
       <c r="F139" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G139" t="n">
         <v>0.0</v>
@@ -3765,7 +3765,7 @@
         <v>0.25</v>
       </c>
       <c r="F140" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G140" t="n">
         <v>0.0</v>
@@ -3791,7 +3791,7 @@
         <v>0.5</v>
       </c>
       <c r="F141" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G141" t="n">
         <v>0.0</v>
@@ -3817,7 +3817,7 @@
         <v>1.0</v>
       </c>
       <c r="F142" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G142" t="n">
         <v>0.0</v>
@@ -3843,7 +3843,7 @@
         <v>0.25</v>
       </c>
       <c r="F143" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G143" t="n">
         <v>0.0</v>
@@ -3869,7 +3869,7 @@
         <v>0.5</v>
       </c>
       <c r="F144" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G144" t="n">
         <v>0.0</v>
@@ -3895,7 +3895,7 @@
         <v>1.0</v>
       </c>
       <c r="F145" t="n">
-        <v>7401.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G145" t="n">
         <v>0.0</v>
@@ -6420,10 +6420,10 @@
         <v>5894.0</v>
       </c>
       <c r="G242" t="n">
-        <v>3345.0</v>
+        <v>3519.0</v>
       </c>
       <c r="H242" t="n">
-        <v>0.011187850943721487</v>
+        <v>0.00827862729496309</v>
       </c>
     </row>
     <row r="243">
@@ -6446,10 +6446,10 @@
         <v>5894.0</v>
       </c>
       <c r="G243" t="n">
-        <v>3345.0</v>
+        <v>3519.0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.022375701887442975</v>
+        <v>0.01655725458992618</v>
       </c>
     </row>
     <row r="244">
@@ -6472,10 +6472,10 @@
         <v>5894.0</v>
       </c>
       <c r="G244" t="n">
-        <v>3345.0</v>
+        <v>3519.0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.04475140377488595</v>
+        <v>0.03311450917985236</v>
       </c>
     </row>
     <row r="245">
@@ -6498,10 +6498,10 @@
         <v>5894.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2202.0</v>
+        <v>2362.0</v>
       </c>
       <c r="H245" t="n">
-        <v>0.01965613476257367</v>
+        <v>0.015267799358693662</v>
       </c>
     </row>
     <row r="246">
@@ -6524,10 +6524,10 @@
         <v>5894.0</v>
       </c>
       <c r="G246" t="n">
-        <v>2202.0</v>
+        <v>2362.0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.03931226952514734</v>
+        <v>0.030535598717387324</v>
       </c>
     </row>
     <row r="247">
@@ -6550,10 +6550,10 @@
         <v>5894.0</v>
       </c>
       <c r="G247" t="n">
-        <v>2202.0</v>
+        <v>2362.0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.07862453905029468</v>
+        <v>0.06107119743477465</v>
       </c>
     </row>
     <row r="248">
@@ -6576,10 +6576,10 @@
         <v>5894.0</v>
       </c>
       <c r="G248" t="n">
-        <v>1337.0</v>
+        <v>1498.0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.038020355147212914</v>
+        <v>0.02937290595067568</v>
       </c>
     </row>
     <row r="249">
@@ -6602,10 +6602,10 @@
         <v>5894.0</v>
       </c>
       <c r="G249" t="n">
-        <v>1337.0</v>
+        <v>1498.0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.07604071029442583</v>
+        <v>0.05874581190135136</v>
       </c>
     </row>
     <row r="250">
@@ -6628,10 +6628,10 @@
         <v>5894.0</v>
       </c>
       <c r="G250" t="n">
-        <v>1337.0</v>
+        <v>1498.0</v>
       </c>
       <c r="H250" t="n">
-        <v>0.15208142058885166</v>
+        <v>0.11749162380270271</v>
       </c>
     </row>
     <row r="251">
@@ -6654,10 +6654,10 @@
         <v>5894.0</v>
       </c>
       <c r="G251" t="n">
-        <v>780.0</v>
+        <v>928.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.0707405438334048</v>
+        <v>0.056125233303089724</v>
       </c>
     </row>
     <row r="252">
@@ -6680,10 +6680,10 @@
         <v>5894.0</v>
       </c>
       <c r="G252" t="n">
-        <v>780.0</v>
+        <v>928.0</v>
       </c>
       <c r="H252" t="n">
-        <v>0.1414810876668096</v>
+        <v>0.11225046660617945</v>
       </c>
     </row>
     <row r="253">
@@ -6706,10 +6706,10 @@
         <v>5894.0</v>
       </c>
       <c r="G253" t="n">
-        <v>780.0</v>
+        <v>928.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.2829621753336192</v>
+        <v>0.2245009332123589</v>
       </c>
     </row>
     <row r="254">
@@ -6732,10 +6732,10 @@
         <v>5894.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3362.0</v>
+        <v>3517.0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.011311197970881445</v>
+        <v>0.008142532211238385</v>
       </c>
     </row>
     <row r="255">
@@ -6758,10 +6758,10 @@
         <v>5894.0</v>
       </c>
       <c r="G255" t="n">
-        <v>3362.0</v>
+        <v>3517.0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02262239594176289</v>
+        <v>0.01628506442247677</v>
       </c>
     </row>
     <row r="256">
@@ -6784,10 +6784,10 @@
         <v>5894.0</v>
       </c>
       <c r="G256" t="n">
-        <v>3362.0</v>
+        <v>3517.0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.04524479188352578</v>
+        <v>0.03257012884495354</v>
       </c>
     </row>
     <row r="257">
@@ -6810,10 +6810,10 @@
         <v>5894.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2189.0</v>
+        <v>2357.0</v>
       </c>
       <c r="H257" t="n">
-        <v>0.01989313649361177</v>
+        <v>0.015136305845627345</v>
       </c>
     </row>
     <row r="258">
@@ -6836,10 +6836,10 @@
         <v>5894.0</v>
       </c>
       <c r="G258" t="n">
-        <v>2189.0</v>
+        <v>2357.0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03978627298722354</v>
+        <v>0.03027261169125469</v>
       </c>
     </row>
     <row r="259">
@@ -6862,10 +6862,10 @@
         <v>5894.0</v>
       </c>
       <c r="G259" t="n">
-        <v>2189.0</v>
+        <v>2357.0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.07957254597444707</v>
+        <v>0.06054522338250938</v>
       </c>
     </row>
     <row r="260">
@@ -6888,10 +6888,10 @@
         <v>5894.0</v>
       </c>
       <c r="G260" t="n">
-        <v>1326.0</v>
+        <v>1492.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.038591610822190016</v>
+        <v>0.02954830375047737</v>
       </c>
     </row>
     <row r="261">
@@ -6914,10 +6914,10 @@
         <v>5894.0</v>
       </c>
       <c r="G261" t="n">
-        <v>1326.0</v>
+        <v>1492.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.07718322164438003</v>
+        <v>0.05909660750095474</v>
       </c>
     </row>
     <row r="262">
@@ -6940,10 +6940,10 @@
         <v>5894.0</v>
       </c>
       <c r="G262" t="n">
-        <v>1326.0</v>
+        <v>1492.0</v>
       </c>
       <c r="H262" t="n">
-        <v>0.15436644328876006</v>
+        <v>0.11819321500190948</v>
       </c>
     </row>
     <row r="263">
@@ -6966,10 +6966,10 @@
         <v>5894.0</v>
       </c>
       <c r="G263" t="n">
-        <v>779.0</v>
+        <v>920.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.07119348229777062</v>
+        <v>0.05589297240975632</v>
       </c>
     </row>
     <row r="264">
@@ -6992,10 +6992,10 @@
         <v>5894.0</v>
       </c>
       <c r="G264" t="n">
-        <v>779.0</v>
+        <v>920.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.14238696459554123</v>
+        <v>0.11178594481951264</v>
       </c>
     </row>
     <row r="265">
@@ -7018,10 +7018,10 @@
         <v>5894.0</v>
       </c>
       <c r="G265" t="n">
-        <v>779.0</v>
+        <v>920.0</v>
       </c>
       <c r="H265" t="n">
-        <v>0.28477392919108246</v>
+        <v>0.22357188963902527</v>
       </c>
     </row>
     <row r="266">
@@ -7044,10 +7044,10 @@
         <v>37.0</v>
       </c>
       <c r="G266" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.009878134015259601</v>
+        <v>-0.012860747149689161</v>
       </c>
     </row>
     <row r="267">
@@ -7070,10 +7070,10 @@
         <v>37.0</v>
       </c>
       <c r="G267" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.019756268030519202</v>
+        <v>-0.025721494299378322</v>
       </c>
     </row>
     <row r="268">
@@ -7096,10 +7096,10 @@
         <v>37.0</v>
       </c>
       <c r="G268" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.039512536061038404</v>
+        <v>-0.051442988598756643</v>
       </c>
     </row>
     <row r="269">
@@ -7122,10 +7122,10 @@
         <v>37.0</v>
       </c>
       <c r="G269" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.007440582823825151</v>
+        <v>-0.014474951449477622</v>
       </c>
     </row>
     <row r="270">
@@ -7148,10 +7148,10 @@
         <v>37.0</v>
       </c>
       <c r="G270" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.014881165647650301</v>
+        <v>-0.028949902898955243</v>
       </c>
     </row>
     <row r="271">
@@ -7174,10 +7174,10 @@
         <v>37.0</v>
       </c>
       <c r="G271" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.029762331295300603</v>
+        <v>-0.057899805797910486</v>
       </c>
     </row>
     <row r="272">
@@ -7203,7 +7203,7 @@
         <v>14.0</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.009036089031907946</v>
+        <v>-0.009565693984065909</v>
       </c>
     </row>
     <row r="273">
@@ -7229,7 +7229,7 @@
         <v>14.0</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.01807217806381589</v>
+        <v>-0.019131387968131817</v>
       </c>
     </row>
     <row r="274">
@@ -7255,7 +7255,7 @@
         <v>14.0</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.03614435612763178</v>
+        <v>-0.038262775936263635</v>
       </c>
     </row>
     <row r="275">
@@ -7281,7 +7281,7 @@
         <v>6.0</v>
       </c>
       <c r="H275" t="n">
-        <v>0.013329612762394992</v>
+        <v>0.011639992939493651</v>
       </c>
     </row>
     <row r="276">
@@ -7307,7 +7307,7 @@
         <v>6.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.026659225524789984</v>
+        <v>0.023279985878987303</v>
       </c>
     </row>
     <row r="277">
@@ -7333,7 +7333,7 @@
         <v>6.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.05331845104957997</v>
+        <v>0.046559971757974605</v>
       </c>
     </row>
     <row r="278">
@@ -7356,10 +7356,10 @@
         <v>37.0</v>
       </c>
       <c r="G278" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.010267586859708326</v>
+        <v>-0.013228729039230034</v>
       </c>
     </row>
     <row r="279">
@@ -7382,10 +7382,10 @@
         <v>37.0</v>
       </c>
       <c r="G279" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.02053517371941665</v>
+        <v>-0.026457458078460068</v>
       </c>
     </row>
     <row r="280">
@@ -7408,10 +7408,10 @@
         <v>37.0</v>
       </c>
       <c r="G280" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.0410703474388333</v>
+        <v>-0.052914916156920136</v>
       </c>
     </row>
     <row r="281">
@@ -7434,10 +7434,10 @@
         <v>37.0</v>
       </c>
       <c r="G281" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.007814444316560004</v>
+        <v>-0.01489997528649194</v>
       </c>
     </row>
     <row r="282">
@@ -7460,10 +7460,10 @@
         <v>37.0</v>
       </c>
       <c r="G282" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.01562888863312001</v>
+        <v>-0.02979995057298388</v>
       </c>
     </row>
     <row r="283">
@@ -7486,10 +7486,10 @@
         <v>37.0</v>
       </c>
       <c r="G283" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.03125777726624002</v>
+        <v>-0.05959990114596776</v>
       </c>
     </row>
     <row r="284">
@@ -7515,7 +7515,7 @@
         <v>14.0</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.00947524989110345</v>
+        <v>-0.009852302152832365</v>
       </c>
     </row>
     <row r="285">
@@ -7541,7 +7541,7 @@
         <v>14.0</v>
       </c>
       <c r="H285" t="n">
-        <v>-0.0189504997822069</v>
+        <v>-0.01970460430566473</v>
       </c>
     </row>
     <row r="286">
@@ -7567,7 +7567,7 @@
         <v>14.0</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.0379009995644138</v>
+        <v>-0.03940920861132946</v>
       </c>
     </row>
     <row r="287">
@@ -7590,10 +7590,10 @@
         <v>37.0</v>
       </c>
       <c r="G287" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H287" t="n">
-        <v>0.013388504189123488</v>
+        <v>0.02471533791033746</v>
       </c>
     </row>
     <row r="288">
@@ -7616,10 +7616,10 @@
         <v>37.0</v>
       </c>
       <c r="G288" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.026777008378246977</v>
+        <v>0.04943067582067492</v>
       </c>
     </row>
     <row r="289">
@@ -7642,10 +7642,10 @@
         <v>37.0</v>
       </c>
       <c r="G289" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H289" t="n">
-        <v>0.053554016756493954</v>
+        <v>0.09886135164134983</v>
       </c>
     </row>
   </sheetData>

--- a/6 glm models/2 historical performance/evaluation_Data.xlsx
+++ b/6 glm models/2 historical performance/evaluation_Data.xlsx
@@ -3297,7 +3297,7 @@
         <v>0.25</v>
       </c>
       <c r="F122" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G122" t="n">
         <v>0.0</v>
@@ -3323,7 +3323,7 @@
         <v>0.5</v>
       </c>
       <c r="F123" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G123" t="n">
         <v>0.0</v>
@@ -3349,7 +3349,7 @@
         <v>1.0</v>
       </c>
       <c r="F124" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G124" t="n">
         <v>0.0</v>
@@ -3375,7 +3375,7 @@
         <v>0.25</v>
       </c>
       <c r="F125" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G125" t="n">
         <v>0.0</v>
@@ -3401,7 +3401,7 @@
         <v>0.5</v>
       </c>
       <c r="F126" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G126" t="n">
         <v>0.0</v>
@@ -3427,7 +3427,7 @@
         <v>1.0</v>
       </c>
       <c r="F127" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G127" t="n">
         <v>0.0</v>
@@ -3453,7 +3453,7 @@
         <v>0.25</v>
       </c>
       <c r="F128" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G128" t="n">
         <v>0.0</v>
@@ -3479,7 +3479,7 @@
         <v>0.5</v>
       </c>
       <c r="F129" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G129" t="n">
         <v>0.0</v>
@@ -3505,7 +3505,7 @@
         <v>1.0</v>
       </c>
       <c r="F130" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G130" t="n">
         <v>0.0</v>
@@ -3531,7 +3531,7 @@
         <v>0.25</v>
       </c>
       <c r="F131" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G131" t="n">
         <v>0.0</v>
@@ -3557,7 +3557,7 @@
         <v>0.5</v>
       </c>
       <c r="F132" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G132" t="n">
         <v>0.0</v>
@@ -3583,7 +3583,7 @@
         <v>1.0</v>
       </c>
       <c r="F133" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G133" t="n">
         <v>0.0</v>
@@ -3609,7 +3609,7 @@
         <v>0.25</v>
       </c>
       <c r="F134" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G134" t="n">
         <v>0.0</v>
@@ -3635,7 +3635,7 @@
         <v>0.5</v>
       </c>
       <c r="F135" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G135" t="n">
         <v>0.0</v>
@@ -3661,7 +3661,7 @@
         <v>1.0</v>
       </c>
       <c r="F136" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
@@ -3687,7 +3687,7 @@
         <v>0.25</v>
       </c>
       <c r="F137" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G137" t="n">
         <v>0.0</v>
@@ -3713,7 +3713,7 @@
         <v>0.5</v>
       </c>
       <c r="F138" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G138" t="n">
         <v>0.0</v>
@@ -3739,7 +3739,7 @@
         <v>1.0</v>
       </c>
       <c r="F139" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G139" t="n">
         <v>0.0</v>
@@ -3765,7 +3765,7 @@
         <v>0.25</v>
       </c>
       <c r="F140" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G140" t="n">
         <v>0.0</v>
@@ -3791,7 +3791,7 @@
         <v>0.5</v>
       </c>
       <c r="F141" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G141" t="n">
         <v>0.0</v>
@@ -3817,7 +3817,7 @@
         <v>1.0</v>
       </c>
       <c r="F142" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G142" t="n">
         <v>0.0</v>
@@ -3843,7 +3843,7 @@
         <v>0.25</v>
       </c>
       <c r="F143" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G143" t="n">
         <v>0.0</v>
@@ -3869,7 +3869,7 @@
         <v>0.5</v>
       </c>
       <c r="F144" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G144" t="n">
         <v>0.0</v>
@@ -3895,7 +3895,7 @@
         <v>1.0</v>
       </c>
       <c r="F145" t="n">
-        <v>7400.0</v>
+        <v>7401.0</v>
       </c>
       <c r="G145" t="n">
         <v>0.0</v>
@@ -6420,10 +6420,10 @@
         <v>5894.0</v>
       </c>
       <c r="G242" t="n">
-        <v>3519.0</v>
+        <v>3343.0</v>
       </c>
       <c r="H242" t="n">
-        <v>0.00827862729496309</v>
+        <v>0.011198288241942071</v>
       </c>
     </row>
     <row r="243">
@@ -6446,10 +6446,10 @@
         <v>5894.0</v>
       </c>
       <c r="G243" t="n">
-        <v>3519.0</v>
+        <v>3343.0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.01655725458992618</v>
+        <v>0.022396576483884142</v>
       </c>
     </row>
     <row r="244">
@@ -6472,10 +6472,10 @@
         <v>5894.0</v>
       </c>
       <c r="G244" t="n">
-        <v>3519.0</v>
+        <v>3343.0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.03311450917985236</v>
+        <v>0.044793152967768285</v>
       </c>
     </row>
     <row r="245">
@@ -6498,10 +6498,10 @@
         <v>5894.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2362.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H245" t="n">
-        <v>0.015267799358693662</v>
+        <v>0.01965616262201082</v>
       </c>
     </row>
     <row r="246">
@@ -6524,10 +6524,10 @@
         <v>5894.0</v>
       </c>
       <c r="G246" t="n">
-        <v>2362.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.030535598717387324</v>
+        <v>0.03931232524402164</v>
       </c>
     </row>
     <row r="247">
@@ -6550,10 +6550,10 @@
         <v>5894.0</v>
       </c>
       <c r="G247" t="n">
-        <v>2362.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.06107119743477465</v>
+        <v>0.07862465048804328</v>
       </c>
     </row>
     <row r="248">
@@ -6576,10 +6576,10 @@
         <v>5894.0</v>
       </c>
       <c r="G248" t="n">
-        <v>1498.0</v>
+        <v>1333.0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.02937290595067568</v>
+        <v>0.03824971807710602</v>
       </c>
     </row>
     <row r="249">
@@ -6602,10 +6602,10 @@
         <v>5894.0</v>
       </c>
       <c r="G249" t="n">
-        <v>1498.0</v>
+        <v>1333.0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.05874581190135136</v>
+        <v>0.07649943615421204</v>
       </c>
     </row>
     <row r="250">
@@ -6628,10 +6628,10 @@
         <v>5894.0</v>
       </c>
       <c r="G250" t="n">
-        <v>1498.0</v>
+        <v>1333.0</v>
       </c>
       <c r="H250" t="n">
-        <v>0.11749162380270271</v>
+        <v>0.15299887230842407</v>
       </c>
     </row>
     <row r="251">
@@ -6654,10 +6654,10 @@
         <v>5894.0</v>
       </c>
       <c r="G251" t="n">
-        <v>928.0</v>
+        <v>777.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.056125233303089724</v>
+        <v>0.07121320277951386</v>
       </c>
     </row>
     <row r="252">
@@ -6680,10 +6680,10 @@
         <v>5894.0</v>
       </c>
       <c r="G252" t="n">
-        <v>928.0</v>
+        <v>777.0</v>
       </c>
       <c r="H252" t="n">
-        <v>0.11225046660617945</v>
+        <v>0.14242640555902772</v>
       </c>
     </row>
     <row r="253">
@@ -6706,10 +6706,10 @@
         <v>5894.0</v>
       </c>
       <c r="G253" t="n">
-        <v>928.0</v>
+        <v>777.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.2245009332123589</v>
+        <v>0.28485281111805544</v>
       </c>
     </row>
     <row r="254">
@@ -6732,10 +6732,10 @@
         <v>5894.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3517.0</v>
+        <v>3361.0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.008142532211238385</v>
+        <v>0.011306150129395157</v>
       </c>
     </row>
     <row r="255">
@@ -6758,10 +6758,10 @@
         <v>5894.0</v>
       </c>
       <c r="G255" t="n">
-        <v>3517.0</v>
+        <v>3361.0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.01628506442247677</v>
+        <v>0.022612300258790314</v>
       </c>
     </row>
     <row r="256">
@@ -6784,10 +6784,10 @@
         <v>5894.0</v>
       </c>
       <c r="G256" t="n">
-        <v>3517.0</v>
+        <v>3361.0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.03257012884495354</v>
+        <v>0.04522460051758063</v>
       </c>
     </row>
     <row r="257">
@@ -6810,10 +6810,10 @@
         <v>5894.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2357.0</v>
+        <v>2189.0</v>
       </c>
       <c r="H257" t="n">
-        <v>0.015136305845627345</v>
+        <v>0.019881084948546793</v>
       </c>
     </row>
     <row r="258">
@@ -6836,10 +6836,10 @@
         <v>5894.0</v>
       </c>
       <c r="G258" t="n">
-        <v>2357.0</v>
+        <v>2189.0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03027261169125469</v>
+        <v>0.03976216989709359</v>
       </c>
     </row>
     <row r="259">
@@ -6862,10 +6862,10 @@
         <v>5894.0</v>
       </c>
       <c r="G259" t="n">
-        <v>2357.0</v>
+        <v>2189.0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.06054522338250938</v>
+        <v>0.07952433979418717</v>
       </c>
     </row>
     <row r="260">
@@ -6888,10 +6888,10 @@
         <v>5894.0</v>
       </c>
       <c r="G260" t="n">
-        <v>1492.0</v>
+        <v>1326.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.02954830375047737</v>
+        <v>0.038585283063589035</v>
       </c>
     </row>
     <row r="261">
@@ -6914,10 +6914,10 @@
         <v>5894.0</v>
       </c>
       <c r="G261" t="n">
-        <v>1492.0</v>
+        <v>1326.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.05909660750095474</v>
+        <v>0.07717056612717807</v>
       </c>
     </row>
     <row r="262">
@@ -6940,10 +6940,10 @@
         <v>5894.0</v>
       </c>
       <c r="G262" t="n">
-        <v>1492.0</v>
+        <v>1326.0</v>
       </c>
       <c r="H262" t="n">
-        <v>0.11819321500190948</v>
+        <v>0.15434113225435614</v>
       </c>
     </row>
     <row r="263">
@@ -6966,10 +6966,10 @@
         <v>5894.0</v>
       </c>
       <c r="G263" t="n">
-        <v>920.0</v>
+        <v>780.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.05589297240975632</v>
+        <v>0.07103953726142838</v>
       </c>
     </row>
     <row r="264">
@@ -6992,10 +6992,10 @@
         <v>5894.0</v>
       </c>
       <c r="G264" t="n">
-        <v>920.0</v>
+        <v>780.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.11178594481951264</v>
+        <v>0.14207907452285676</v>
       </c>
     </row>
     <row r="265">
@@ -7018,10 +7018,10 @@
         <v>5894.0</v>
       </c>
       <c r="G265" t="n">
-        <v>920.0</v>
+        <v>780.0</v>
       </c>
       <c r="H265" t="n">
-        <v>0.22357188963902527</v>
+        <v>0.2841581490457135</v>
       </c>
     </row>
     <row r="266">
@@ -7044,10 +7044,10 @@
         <v>37.0</v>
       </c>
       <c r="G266" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.012860747149689161</v>
+        <v>-0.009870279708840898</v>
       </c>
     </row>
     <row r="267">
@@ -7070,10 +7070,10 @@
         <v>37.0</v>
       </c>
       <c r="G267" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.025721494299378322</v>
+        <v>-0.019740559417681797</v>
       </c>
     </row>
     <row r="268">
@@ -7096,10 +7096,10 @@
         <v>37.0</v>
       </c>
       <c r="G268" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.051442988598756643</v>
+        <v>-0.03948111883536359</v>
       </c>
     </row>
     <row r="269">
@@ -7122,10 +7122,10 @@
         <v>37.0</v>
       </c>
       <c r="G269" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.014474951449477622</v>
+        <v>-0.0074424702496484795</v>
       </c>
     </row>
     <row r="270">
@@ -7148,10 +7148,10 @@
         <v>37.0</v>
       </c>
       <c r="G270" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.028949902898955243</v>
+        <v>-0.014884940499296959</v>
       </c>
     </row>
     <row r="271">
@@ -7174,10 +7174,10 @@
         <v>37.0</v>
       </c>
       <c r="G271" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.057899805797910486</v>
+        <v>-0.029769880998593918</v>
       </c>
     </row>
     <row r="272">
@@ -7203,7 +7203,7 @@
         <v>14.0</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.009565693984065909</v>
+        <v>-0.009039344620375008</v>
       </c>
     </row>
     <row r="273">
@@ -7229,7 +7229,7 @@
         <v>14.0</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.019131387968131817</v>
+        <v>-0.018078689240750016</v>
       </c>
     </row>
     <row r="274">
@@ -7255,7 +7255,7 @@
         <v>14.0</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.038262775936263635</v>
+        <v>-0.03615737848150003</v>
       </c>
     </row>
     <row r="275">
@@ -7278,10 +7278,10 @@
         <v>37.0</v>
       </c>
       <c r="G275" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H275" t="n">
-        <v>0.011639992939493651</v>
+        <v>0.025982479238126844</v>
       </c>
     </row>
     <row r="276">
@@ -7304,10 +7304,10 @@
         <v>37.0</v>
       </c>
       <c r="G276" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.023279985878987303</v>
+        <v>0.05196495847625369</v>
       </c>
     </row>
     <row r="277">
@@ -7330,10 +7330,10 @@
         <v>37.0</v>
       </c>
       <c r="G277" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.046559971757974605</v>
+        <v>0.10392991695250738</v>
       </c>
     </row>
     <row r="278">
@@ -7356,10 +7356,10 @@
         <v>37.0</v>
       </c>
       <c r="G278" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.013228729039230034</v>
+        <v>-0.010256650624601736</v>
       </c>
     </row>
     <row r="279">
@@ -7382,10 +7382,10 @@
         <v>37.0</v>
       </c>
       <c r="G279" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.026457458078460068</v>
+        <v>-0.02051330124920347</v>
       </c>
     </row>
     <row r="280">
@@ -7408,10 +7408,10 @@
         <v>37.0</v>
       </c>
       <c r="G280" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.052914916156920136</v>
+        <v>-0.04102660249840694</v>
       </c>
     </row>
     <row r="281">
@@ -7434,10 +7434,10 @@
         <v>37.0</v>
       </c>
       <c r="G281" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.01489997528649194</v>
+        <v>-0.007817365238555505</v>
       </c>
     </row>
     <row r="282">
@@ -7460,10 +7460,10 @@
         <v>37.0</v>
       </c>
       <c r="G282" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.02979995057298388</v>
+        <v>-0.01563473047711101</v>
       </c>
     </row>
     <row r="283">
@@ -7486,10 +7486,10 @@
         <v>37.0</v>
       </c>
       <c r="G283" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.05959990114596776</v>
+        <v>-0.03126946095422202</v>
       </c>
     </row>
     <row r="284">
@@ -7515,7 +7515,7 @@
         <v>14.0</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.009852302152832365</v>
+        <v>-0.009475987204382837</v>
       </c>
     </row>
     <row r="285">
@@ -7541,7 +7541,7 @@
         <v>14.0</v>
       </c>
       <c r="H285" t="n">
-        <v>-0.01970460430566473</v>
+        <v>-0.018951974408765674</v>
       </c>
     </row>
     <row r="286">
@@ -7567,7 +7567,7 @@
         <v>14.0</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.03940920861132946</v>
+        <v>-0.03790394881753135</v>
       </c>
     </row>
     <row r="287">
@@ -7590,10 +7590,10 @@
         <v>37.0</v>
       </c>
       <c r="G287" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H287" t="n">
-        <v>0.02471533791033746</v>
+        <v>0.013383740126196655</v>
       </c>
     </row>
     <row r="288">
@@ -7616,10 +7616,10 @@
         <v>37.0</v>
       </c>
       <c r="G288" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.04943067582067492</v>
+        <v>0.02676748025239331</v>
       </c>
     </row>
     <row r="289">
@@ -7642,10 +7642,10 @@
         <v>37.0</v>
       </c>
       <c r="G289" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H289" t="n">
-        <v>0.09886135164134983</v>
+        <v>0.05353496050478662</v>
       </c>
     </row>
   </sheetData>

--- a/6 glm models/2 historical performance/evaluation_Data.xlsx
+++ b/6 glm models/2 historical performance/evaluation_Data.xlsx
@@ -6420,10 +6420,10 @@
         <v>5894.0</v>
       </c>
       <c r="G242" t="n">
-        <v>3343.0</v>
+        <v>3345.0</v>
       </c>
       <c r="H242" t="n">
-        <v>0.011198288241942071</v>
+        <v>0.011182835602926572</v>
       </c>
     </row>
     <row r="243">
@@ -6446,10 +6446,10 @@
         <v>5894.0</v>
       </c>
       <c r="G243" t="n">
-        <v>3343.0</v>
+        <v>3345.0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.022396576483884142</v>
+        <v>0.022365671205853144</v>
       </c>
     </row>
     <row r="244">
@@ -6472,10 +6472,10 @@
         <v>5894.0</v>
       </c>
       <c r="G244" t="n">
-        <v>3343.0</v>
+        <v>3345.0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.044793152967768285</v>
+        <v>0.04473134241170629</v>
       </c>
     </row>
     <row r="245">
@@ -6498,10 +6498,10 @@
         <v>5894.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2200.0</v>
+        <v>2201.0</v>
       </c>
       <c r="H245" t="n">
-        <v>0.01965616262201082</v>
+        <v>0.01967171694990406</v>
       </c>
     </row>
     <row r="246">
@@ -6524,10 +6524,10 @@
         <v>5894.0</v>
       </c>
       <c r="G246" t="n">
-        <v>2200.0</v>
+        <v>2201.0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.03931232524402164</v>
+        <v>0.03934343389980812</v>
       </c>
     </row>
     <row r="247">
@@ -6550,10 +6550,10 @@
         <v>5894.0</v>
       </c>
       <c r="G247" t="n">
-        <v>2200.0</v>
+        <v>2201.0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.07862465048804328</v>
+        <v>0.07868686779961624</v>
       </c>
     </row>
     <row r="248">
@@ -6576,10 +6576,10 @@
         <v>5894.0</v>
       </c>
       <c r="G248" t="n">
-        <v>1333.0</v>
+        <v>1337.0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.03824971807710602</v>
+        <v>0.03801666093097445</v>
       </c>
     </row>
     <row r="249">
@@ -6602,10 +6602,10 @@
         <v>5894.0</v>
       </c>
       <c r="G249" t="n">
-        <v>1333.0</v>
+        <v>1337.0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.07649943615421204</v>
+        <v>0.0760333218619489</v>
       </c>
     </row>
     <row r="250">
@@ -6628,10 +6628,10 @@
         <v>5894.0</v>
       </c>
       <c r="G250" t="n">
-        <v>1333.0</v>
+        <v>1337.0</v>
       </c>
       <c r="H250" t="n">
-        <v>0.15299887230842407</v>
+        <v>0.1520666437238978</v>
       </c>
     </row>
     <row r="251">
@@ -6654,10 +6654,10 @@
         <v>5894.0</v>
       </c>
       <c r="G251" t="n">
-        <v>777.0</v>
+        <v>780.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.07121320277951386</v>
+        <v>0.07073901836793385</v>
       </c>
     </row>
     <row r="252">
@@ -6680,10 +6680,10 @@
         <v>5894.0</v>
       </c>
       <c r="G252" t="n">
-        <v>777.0</v>
+        <v>780.0</v>
       </c>
       <c r="H252" t="n">
-        <v>0.14242640555902772</v>
+        <v>0.1414780367358677</v>
       </c>
     </row>
     <row r="253">
@@ -6706,10 +6706,10 @@
         <v>5894.0</v>
       </c>
       <c r="G253" t="n">
-        <v>777.0</v>
+        <v>780.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.28485281111805544</v>
+        <v>0.2829560734717354</v>
       </c>
     </row>
     <row r="254">
@@ -6732,10 +6732,10 @@
         <v>5894.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3361.0</v>
+        <v>3362.0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.011306150129395157</v>
+        <v>0.01130689310732869</v>
       </c>
     </row>
     <row r="255">
@@ -6758,10 +6758,10 @@
         <v>5894.0</v>
       </c>
       <c r="G255" t="n">
-        <v>3361.0</v>
+        <v>3362.0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.022612300258790314</v>
+        <v>0.02261378621465738</v>
       </c>
     </row>
     <row r="256">
@@ -6784,10 +6784,10 @@
         <v>5894.0</v>
       </c>
       <c r="G256" t="n">
-        <v>3361.0</v>
+        <v>3362.0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.04522460051758063</v>
+        <v>0.04522757242931476</v>
       </c>
     </row>
     <row r="257">
@@ -6813,7 +6813,7 @@
         <v>2189.0</v>
       </c>
       <c r="H257" t="n">
-        <v>0.019881084948546793</v>
+        <v>0.01988936023853793</v>
       </c>
     </row>
     <row r="258">
@@ -6839,7 +6839,7 @@
         <v>2189.0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03976216989709359</v>
+        <v>0.03977872047707586</v>
       </c>
     </row>
     <row r="259">
@@ -6865,7 +6865,7 @@
         <v>2189.0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.07952433979418717</v>
+        <v>0.07955744095415172</v>
       </c>
     </row>
     <row r="260">
@@ -6891,7 +6891,7 @@
         <v>1326.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.038585283063589035</v>
+        <v>0.03858889925635984</v>
       </c>
     </row>
     <row r="261">
@@ -6917,7 +6917,7 @@
         <v>1326.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.07717056612717807</v>
+        <v>0.07717779851271968</v>
       </c>
     </row>
     <row r="262">
@@ -6943,7 +6943,7 @@
         <v>1326.0</v>
       </c>
       <c r="H262" t="n">
-        <v>0.15434113225435614</v>
+        <v>0.15435559702543936</v>
       </c>
     </row>
     <row r="263">
@@ -6966,10 +6966,10 @@
         <v>5894.0</v>
       </c>
       <c r="G263" t="n">
-        <v>780.0</v>
+        <v>779.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.07103953726142838</v>
+        <v>0.07119318284658786</v>
       </c>
     </row>
     <row r="264">
@@ -6992,10 +6992,10 @@
         <v>5894.0</v>
       </c>
       <c r="G264" t="n">
-        <v>780.0</v>
+        <v>779.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.14207907452285676</v>
+        <v>0.14238636569317573</v>
       </c>
     </row>
     <row r="265">
@@ -7018,10 +7018,10 @@
         <v>5894.0</v>
       </c>
       <c r="G265" t="n">
-        <v>780.0</v>
+        <v>779.0</v>
       </c>
       <c r="H265" t="n">
-        <v>0.2841581490457135</v>
+        <v>0.28477273138635145</v>
       </c>
     </row>
     <row r="266">
@@ -7047,7 +7047,7 @@
         <v>21.0</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.009870279708840898</v>
+        <v>-0.009876078997665726</v>
       </c>
     </row>
     <row r="267">
@@ -7073,7 +7073,7 @@
         <v>21.0</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.019740559417681797</v>
+        <v>-0.019752157995331452</v>
       </c>
     </row>
     <row r="268">
@@ -7099,7 +7099,7 @@
         <v>21.0</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.03948111883536359</v>
+        <v>-0.039504315990662904</v>
       </c>
     </row>
     <row r="269">
@@ -7125,7 +7125,7 @@
         <v>17.0</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.0074424702496484795</v>
+        <v>-0.0074417231456801215</v>
       </c>
     </row>
     <row r="270">
@@ -7151,7 +7151,7 @@
         <v>17.0</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.014884940499296959</v>
+        <v>-0.014883446291360243</v>
       </c>
     </row>
     <row r="271">
@@ -7177,7 +7177,7 @@
         <v>17.0</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.029769880998593918</v>
+        <v>-0.029766892582720486</v>
       </c>
     </row>
     <row r="272">
@@ -7203,7 +7203,7 @@
         <v>14.0</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.009039344620375008</v>
+        <v>-0.009035648626447002</v>
       </c>
     </row>
     <row r="273">
@@ -7229,7 +7229,7 @@
         <v>14.0</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.018078689240750016</v>
+        <v>-0.018071297252894004</v>
       </c>
     </row>
     <row r="274">
@@ -7255,7 +7255,7 @@
         <v>14.0</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.03615737848150003</v>
+        <v>-0.03614259450578801</v>
       </c>
     </row>
     <row r="275">
@@ -7278,10 +7278,10 @@
         <v>37.0</v>
       </c>
       <c r="G275" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H275" t="n">
-        <v>0.025982479238126844</v>
+        <v>0.013324105029916116</v>
       </c>
     </row>
     <row r="276">
@@ -7304,10 +7304,10 @@
         <v>37.0</v>
       </c>
       <c r="G276" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.05196495847625369</v>
+        <v>0.02664821005983223</v>
       </c>
     </row>
     <row r="277">
@@ -7330,10 +7330,10 @@
         <v>37.0</v>
       </c>
       <c r="G277" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.10392991695250738</v>
+        <v>0.05329642011966446</v>
       </c>
     </row>
     <row r="278">
@@ -7359,7 +7359,7 @@
         <v>21.0</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.010256650624601736</v>
+        <v>-0.010264144282042682</v>
       </c>
     </row>
     <row r="279">
@@ -7385,7 +7385,7 @@
         <v>21.0</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.02051330124920347</v>
+        <v>-0.020528288564085364</v>
       </c>
     </row>
     <row r="280">
@@ -7411,7 +7411,7 @@
         <v>21.0</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.04102660249840694</v>
+        <v>-0.04105657712817073</v>
       </c>
     </row>
     <row r="281">
@@ -7437,7 +7437,7 @@
         <v>17.0</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.007817365238555505</v>
+        <v>-0.007813958139863329</v>
       </c>
     </row>
     <row r="282">
@@ -7463,7 +7463,7 @@
         <v>17.0</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.01563473047711101</v>
+        <v>-0.015627916279726657</v>
       </c>
     </row>
     <row r="283">
@@ -7489,7 +7489,7 @@
         <v>17.0</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.03126946095422202</v>
+        <v>-0.031255832559453314</v>
       </c>
     </row>
     <row r="284">
@@ -7515,7 +7515,7 @@
         <v>14.0</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.009475987204382837</v>
+        <v>-0.009473001382492564</v>
       </c>
     </row>
     <row r="285">
@@ -7541,7 +7541,7 @@
         <v>14.0</v>
       </c>
       <c r="H285" t="n">
-        <v>-0.018951974408765674</v>
+        <v>-0.018946002764985127</v>
       </c>
     </row>
     <row r="286">
@@ -7567,7 +7567,7 @@
         <v>14.0</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.03790394881753135</v>
+        <v>-0.037892005529970255</v>
       </c>
     </row>
     <row r="287">
@@ -7593,7 +7593,7 @@
         <v>6.0</v>
       </c>
       <c r="H287" t="n">
-        <v>0.013383740126196655</v>
+        <v>0.013384830909950737</v>
       </c>
     </row>
     <row r="288">
@@ -7619,7 +7619,7 @@
         <v>6.0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.02676748025239331</v>
+        <v>0.026769661819901473</v>
       </c>
     </row>
     <row r="289">
@@ -7645,7 +7645,7 @@
         <v>6.0</v>
       </c>
       <c r="H289" t="n">
-        <v>0.05353496050478662</v>
+        <v>0.053539323639802947</v>
       </c>
     </row>
   </sheetData>

--- a/6 glm models/2 historical performance/evaluation_Data.xlsx
+++ b/6 glm models/2 historical performance/evaluation_Data.xlsx
@@ -6423,7 +6423,7 @@
         <v>3345.0</v>
       </c>
       <c r="H242" t="n">
-        <v>0.011182835602926572</v>
+        <v>0.011182835602925125</v>
       </c>
     </row>
     <row r="243">
@@ -6449,7 +6449,7 @@
         <v>3345.0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.022365671205853144</v>
+        <v>0.02236567120585025</v>
       </c>
     </row>
     <row r="244">
@@ -6475,7 +6475,7 @@
         <v>3345.0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.04473134241170629</v>
+        <v>0.0447313424117005</v>
       </c>
     </row>
     <row r="245">
@@ -6501,7 +6501,7 @@
         <v>2201.0</v>
       </c>
       <c r="H245" t="n">
-        <v>0.01967171694990406</v>
+        <v>0.019671716949903773</v>
       </c>
     </row>
     <row r="246">
@@ -6527,7 +6527,7 @@
         <v>2201.0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.03934343389980812</v>
+        <v>0.039343433899807545</v>
       </c>
     </row>
     <row r="247">
@@ -6553,7 +6553,7 @@
         <v>2201.0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.07868686779961624</v>
+        <v>0.07868686779961509</v>
       </c>
     </row>
     <row r="248">
@@ -6579,7 +6579,7 @@
         <v>1337.0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.03801666093097445</v>
+        <v>0.03801666093097629</v>
       </c>
     </row>
     <row r="249">
@@ -6605,7 +6605,7 @@
         <v>1337.0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.0760333218619489</v>
+        <v>0.07603332186195258</v>
       </c>
     </row>
     <row r="250">
@@ -6631,7 +6631,7 @@
         <v>1337.0</v>
       </c>
       <c r="H250" t="n">
-        <v>0.1520666437238978</v>
+        <v>0.15206664372390516</v>
       </c>
     </row>
     <row r="251">
@@ -6657,7 +6657,7 @@
         <v>780.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.07073901836793385</v>
+        <v>0.07073901836793912</v>
       </c>
     </row>
     <row r="252">
@@ -6683,7 +6683,7 @@
         <v>780.0</v>
       </c>
       <c r="H252" t="n">
-        <v>0.1414780367358677</v>
+        <v>0.14147803673587825</v>
       </c>
     </row>
     <row r="253">
@@ -6709,7 +6709,7 @@
         <v>780.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.2829560734717354</v>
+        <v>0.2829560734717565</v>
       </c>
     </row>
     <row r="254">
@@ -6735,7 +6735,7 @@
         <v>3362.0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.01130689310732869</v>
+        <v>0.011306893108698536</v>
       </c>
     </row>
     <row r="255">
@@ -6761,7 +6761,7 @@
         <v>3362.0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02261378621465738</v>
+        <v>0.022613786217397073</v>
       </c>
     </row>
     <row r="256">
@@ -6787,7 +6787,7 @@
         <v>3362.0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.04522757242931476</v>
+        <v>0.045227572434794146</v>
       </c>
     </row>
     <row r="257">
@@ -6813,7 +6813,7 @@
         <v>2189.0</v>
       </c>
       <c r="H257" t="n">
-        <v>0.01988936023853793</v>
+        <v>0.01988936024097784</v>
       </c>
     </row>
     <row r="258">
@@ -6839,7 +6839,7 @@
         <v>2189.0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03977872047707586</v>
+        <v>0.03977872048195568</v>
       </c>
     </row>
     <row r="259">
@@ -6865,7 +6865,7 @@
         <v>2189.0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.07955744095415172</v>
+        <v>0.07955744096391136</v>
       </c>
     </row>
     <row r="260">
@@ -6891,7 +6891,7 @@
         <v>1326.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.03858889925635984</v>
+        <v>0.03858889926101375</v>
       </c>
     </row>
     <row r="261">
@@ -6917,7 +6917,7 @@
         <v>1326.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.07717779851271968</v>
+        <v>0.0771777985220275</v>
       </c>
     </row>
     <row r="262">
@@ -6943,7 +6943,7 @@
         <v>1326.0</v>
       </c>
       <c r="H262" t="n">
-        <v>0.15435559702543936</v>
+        <v>0.154355597044055</v>
       </c>
     </row>
     <row r="263">
@@ -6969,7 +6969,7 @@
         <v>779.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.07119318284658786</v>
+        <v>0.07119318285483178</v>
       </c>
     </row>
     <row r="264">
@@ -6995,7 +6995,7 @@
         <v>779.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.14238636569317573</v>
+        <v>0.14238636570966356</v>
       </c>
     </row>
     <row r="265">
@@ -7021,7 +7021,7 @@
         <v>779.0</v>
       </c>
       <c r="H265" t="n">
-        <v>0.28477273138635145</v>
+        <v>0.28477273141932713</v>
       </c>
     </row>
     <row r="266">
@@ -7047,7 +7047,7 @@
         <v>21.0</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.009876078997665726</v>
+        <v>-0.009876078997668302</v>
       </c>
     </row>
     <row r="267">
@@ -7073,7 +7073,7 @@
         <v>21.0</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.019752157995331452</v>
+        <v>-0.019752157995336604</v>
       </c>
     </row>
     <row r="268">
@@ -7099,7 +7099,7 @@
         <v>21.0</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.039504315990662904</v>
+        <v>-0.03950431599067321</v>
       </c>
     </row>
     <row r="269">
@@ -7125,7 +7125,7 @@
         <v>17.0</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.0074417231456801215</v>
+        <v>-0.007441723145681935</v>
       </c>
     </row>
     <row r="270">
@@ -7151,7 +7151,7 @@
         <v>17.0</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.014883446291360243</v>
+        <v>-0.01488344629136387</v>
       </c>
     </row>
     <row r="271">
@@ -7177,7 +7177,7 @@
         <v>17.0</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.029766892582720486</v>
+        <v>-0.02976689258272774</v>
       </c>
     </row>
     <row r="272">
@@ -7203,7 +7203,7 @@
         <v>14.0</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.009035648626447002</v>
+        <v>-0.009035648626447594</v>
       </c>
     </row>
     <row r="273">
@@ -7229,7 +7229,7 @@
         <v>14.0</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.018071297252894004</v>
+        <v>-0.018071297252895187</v>
       </c>
     </row>
     <row r="274">
@@ -7255,7 +7255,7 @@
         <v>14.0</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.03614259450578801</v>
+        <v>-0.036142594505790375</v>
       </c>
     </row>
     <row r="275">
@@ -7281,7 +7281,7 @@
         <v>6.0</v>
       </c>
       <c r="H275" t="n">
-        <v>0.013324105029916116</v>
+        <v>0.013324105029918626</v>
       </c>
     </row>
     <row r="276">
@@ -7307,7 +7307,7 @@
         <v>6.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.02664821005983223</v>
+        <v>0.026648210059837252</v>
       </c>
     </row>
     <row r="277">
@@ -7333,7 +7333,7 @@
         <v>6.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.05329642011966446</v>
+        <v>0.053296420119674504</v>
       </c>
     </row>
     <row r="278">
@@ -7359,7 +7359,7 @@
         <v>21.0</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.010264144282042682</v>
+        <v>-0.010264144282640194</v>
       </c>
     </row>
     <row r="279">
@@ -7385,7 +7385,7 @@
         <v>21.0</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.020528288564085364</v>
+        <v>-0.020528288565280387</v>
       </c>
     </row>
     <row r="280">
@@ -7411,7 +7411,7 @@
         <v>21.0</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.04105657712817073</v>
+        <v>-0.041056577130560774</v>
       </c>
     </row>
     <row r="281">
@@ -7437,7 +7437,7 @@
         <v>17.0</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.007813958139863329</v>
+        <v>-0.007813958140020753</v>
       </c>
     </row>
     <row r="282">
@@ -7463,7 +7463,7 @@
         <v>17.0</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.015627916279726657</v>
+        <v>-0.015627916280041506</v>
       </c>
     </row>
     <row r="283">
@@ -7489,7 +7489,7 @@
         <v>17.0</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.031255832559453314</v>
+        <v>-0.03125583256008301</v>
       </c>
     </row>
     <row r="284">
@@ -7515,7 +7515,7 @@
         <v>14.0</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.009473001382492564</v>
+        <v>-0.009473001383016993</v>
       </c>
     </row>
     <row r="285">
@@ -7541,7 +7541,7 @@
         <v>14.0</v>
       </c>
       <c r="H285" t="n">
-        <v>-0.018946002764985127</v>
+        <v>-0.018946002766033986</v>
       </c>
     </row>
     <row r="286">
@@ -7567,7 +7567,7 @@
         <v>14.0</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.037892005529970255</v>
+        <v>-0.03789200553206797</v>
       </c>
     </row>
     <row r="287">
@@ -7593,7 +7593,7 @@
         <v>6.0</v>
       </c>
       <c r="H287" t="n">
-        <v>0.013384830909950737</v>
+        <v>0.013384830913056846</v>
       </c>
     </row>
     <row r="288">
@@ -7619,7 +7619,7 @@
         <v>6.0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.026769661819901473</v>
+        <v>0.02676966182611369</v>
       </c>
     </row>
     <row r="289">
@@ -7645,7 +7645,7 @@
         <v>6.0</v>
       </c>
       <c r="H289" t="n">
-        <v>0.053539323639802947</v>
+        <v>0.05353932365222738</v>
       </c>
     </row>
   </sheetData>

--- a/6 glm models/2 historical performance/evaluation_Data.xlsx
+++ b/6 glm models/2 historical performance/evaluation_Data.xlsx
@@ -6420,10 +6420,10 @@
         <v>5894.0</v>
       </c>
       <c r="G242" t="n">
-        <v>3345.0</v>
+        <v>3332.0</v>
       </c>
       <c r="H242" t="n">
-        <v>0.011182835602925125</v>
+        <v>0.00732480449370846</v>
       </c>
     </row>
     <row r="243">
@@ -6446,10 +6446,10 @@
         <v>5894.0</v>
       </c>
       <c r="G243" t="n">
-        <v>3345.0</v>
+        <v>3332.0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.02236567120585025</v>
+        <v>0.01464960898741692</v>
       </c>
     </row>
     <row r="244">
@@ -6472,10 +6472,10 @@
         <v>5894.0</v>
       </c>
       <c r="G244" t="n">
-        <v>3345.0</v>
+        <v>3332.0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.0447313424117005</v>
+        <v>0.02929921797483384</v>
       </c>
     </row>
     <row r="245">
@@ -6498,10 +6498,10 @@
         <v>5894.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2201.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H245" t="n">
-        <v>0.019671716949903773</v>
+        <v>0.015187175426728497</v>
       </c>
     </row>
     <row r="246">
@@ -6524,10 +6524,10 @@
         <v>5894.0</v>
       </c>
       <c r="G246" t="n">
-        <v>2201.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.039343433899807545</v>
+        <v>0.030374350853456994</v>
       </c>
     </row>
     <row r="247">
@@ -6550,10 +6550,10 @@
         <v>5894.0</v>
       </c>
       <c r="G247" t="n">
-        <v>2201.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.07868686779961509</v>
+        <v>0.06074870170691399</v>
       </c>
     </row>
     <row r="248">
@@ -6576,10 +6576,10 @@
         <v>5894.0</v>
       </c>
       <c r="G248" t="n">
-        <v>1337.0</v>
+        <v>1043.0</v>
       </c>
       <c r="H248" t="n">
-        <v>0.03801666093097629</v>
+        <v>0.03822993408740592</v>
       </c>
     </row>
     <row r="249">
@@ -6602,10 +6602,10 @@
         <v>5894.0</v>
       </c>
       <c r="G249" t="n">
-        <v>1337.0</v>
+        <v>1043.0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.07603332186195258</v>
+        <v>0.07645986817481185</v>
       </c>
     </row>
     <row r="250">
@@ -6628,10 +6628,10 @@
         <v>5894.0</v>
       </c>
       <c r="G250" t="n">
-        <v>1337.0</v>
+        <v>1043.0</v>
       </c>
       <c r="H250" t="n">
-        <v>0.15206664372390516</v>
+        <v>0.1529197363496237</v>
       </c>
     </row>
     <row r="251">
@@ -6654,10 +6654,10 @@
         <v>5894.0</v>
       </c>
       <c r="G251" t="n">
-        <v>780.0</v>
+        <v>501.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.07073901836793912</v>
+        <v>0.08039050217890321</v>
       </c>
     </row>
     <row r="252">
@@ -6680,10 +6680,10 @@
         <v>5894.0</v>
       </c>
       <c r="G252" t="n">
-        <v>780.0</v>
+        <v>501.0</v>
       </c>
       <c r="H252" t="n">
-        <v>0.14147803673587825</v>
+        <v>0.16078100435780643</v>
       </c>
     </row>
     <row r="253">
@@ -6706,10 +6706,10 @@
         <v>5894.0</v>
       </c>
       <c r="G253" t="n">
-        <v>780.0</v>
+        <v>501.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.2829560734717565</v>
+        <v>0.32156200871561286</v>
       </c>
     </row>
     <row r="254">
@@ -6732,10 +6732,10 @@
         <v>5894.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3362.0</v>
+        <v>3346.0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.011306893108698536</v>
+        <v>0.00733472350419756</v>
       </c>
     </row>
     <row r="255">
@@ -6758,10 +6758,10 @@
         <v>5894.0</v>
       </c>
       <c r="G255" t="n">
-        <v>3362.0</v>
+        <v>3346.0</v>
       </c>
       <c r="H255" t="n">
-        <v>0.022613786217397073</v>
+        <v>0.01466944700839512</v>
       </c>
     </row>
     <row r="256">
@@ -6784,10 +6784,10 @@
         <v>5894.0</v>
       </c>
       <c r="G256" t="n">
-        <v>3362.0</v>
+        <v>3346.0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.045227572434794146</v>
+        <v>0.02933889401679024</v>
       </c>
     </row>
     <row r="257">
@@ -6810,10 +6810,10 @@
         <v>5894.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2189.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H257" t="n">
-        <v>0.01988936024097784</v>
+        <v>0.015258305171068857</v>
       </c>
     </row>
     <row r="258">
@@ -6836,10 +6836,10 @@
         <v>5894.0</v>
       </c>
       <c r="G258" t="n">
-        <v>2189.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03977872048195568</v>
+        <v>0.030516610342137714</v>
       </c>
     </row>
     <row r="259">
@@ -6862,10 +6862,10 @@
         <v>5894.0</v>
       </c>
       <c r="G259" t="n">
-        <v>2189.0</v>
+        <v>2020.0</v>
       </c>
       <c r="H259" t="n">
-        <v>0.07955744096391136</v>
+        <v>0.06103322068427543</v>
       </c>
     </row>
     <row r="260">
@@ -6888,10 +6888,10 @@
         <v>5894.0</v>
       </c>
       <c r="G260" t="n">
-        <v>1326.0</v>
+        <v>1038.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.03858889926101375</v>
+        <v>0.03846862503957871</v>
       </c>
     </row>
     <row r="261">
@@ -6914,10 +6914,10 @@
         <v>5894.0</v>
       </c>
       <c r="G261" t="n">
-        <v>1326.0</v>
+        <v>1038.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.0771777985220275</v>
+        <v>0.07693725007915742</v>
       </c>
     </row>
     <row r="262">
@@ -6940,10 +6940,10 @@
         <v>5894.0</v>
       </c>
       <c r="G262" t="n">
-        <v>1326.0</v>
+        <v>1038.0</v>
       </c>
       <c r="H262" t="n">
-        <v>0.154355597044055</v>
+        <v>0.15387450015831483</v>
       </c>
     </row>
     <row r="263">
@@ -6966,10 +6966,10 @@
         <v>5894.0</v>
       </c>
       <c r="G263" t="n">
-        <v>779.0</v>
+        <v>505.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.07119318285483178</v>
+        <v>0.08078114205042765</v>
       </c>
     </row>
     <row r="264">
@@ -6992,10 +6992,10 @@
         <v>5894.0</v>
       </c>
       <c r="G264" t="n">
-        <v>779.0</v>
+        <v>505.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.14238636570966356</v>
+        <v>0.1615622841008553</v>
       </c>
     </row>
     <row r="265">
@@ -7018,10 +7018,10 @@
         <v>5894.0</v>
       </c>
       <c r="G265" t="n">
-        <v>779.0</v>
+        <v>505.0</v>
       </c>
       <c r="H265" t="n">
-        <v>0.28477273141932713</v>
+        <v>0.3231245682017106</v>
       </c>
     </row>
     <row r="266">
@@ -7047,7 +7047,7 @@
         <v>21.0</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.009876078997668302</v>
+        <v>-0.008636530835495789</v>
       </c>
     </row>
     <row r="267">
@@ -7073,7 +7073,7 @@
         <v>21.0</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.019752157995336604</v>
+        <v>-0.017273061670991578</v>
       </c>
     </row>
     <row r="268">
@@ -7099,7 +7099,7 @@
         <v>21.0</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.03950431599067321</v>
+        <v>-0.034546123341983155</v>
       </c>
     </row>
     <row r="269">
@@ -7125,7 +7125,7 @@
         <v>17.0</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.007441723145681935</v>
+        <v>-0.005832993475698231</v>
       </c>
     </row>
     <row r="270">
@@ -7151,7 +7151,7 @@
         <v>17.0</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.01488344629136387</v>
+        <v>-0.011665986951396461</v>
       </c>
     </row>
     <row r="271">
@@ -7177,7 +7177,7 @@
         <v>17.0</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.02976689258272774</v>
+        <v>-0.023331973902792923</v>
       </c>
     </row>
     <row r="272">
@@ -7200,10 +7200,10 @@
         <v>37.0</v>
       </c>
       <c r="G272" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.009035648626447594</v>
+        <v>5.375598411443124E-4</v>
       </c>
     </row>
     <row r="273">
@@ -7226,10 +7226,10 @@
         <v>37.0</v>
       </c>
       <c r="G273" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.018071297252895187</v>
+        <v>0.0010751196822886247</v>
       </c>
     </row>
     <row r="274">
@@ -7252,10 +7252,10 @@
         <v>37.0</v>
       </c>
       <c r="G274" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.036142594505790375</v>
+        <v>0.0021502393645772494</v>
       </c>
     </row>
     <row r="275">
@@ -7278,10 +7278,10 @@
         <v>37.0</v>
       </c>
       <c r="G275" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H275" t="n">
-        <v>0.013324105029918626</v>
+        <v>0.07627741568426277</v>
       </c>
     </row>
     <row r="276">
@@ -7304,10 +7304,10 @@
         <v>37.0</v>
       </c>
       <c r="G276" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.026648210059837252</v>
+        <v>0.15255483136852555</v>
       </c>
     </row>
     <row r="277">
@@ -7330,10 +7330,10 @@
         <v>37.0</v>
       </c>
       <c r="G277" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.053296420119674504</v>
+        <v>0.3051096627370511</v>
       </c>
     </row>
     <row r="278">
@@ -7359,7 +7359,7 @@
         <v>21.0</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.010264144282640194</v>
+        <v>-0.008976076252783455</v>
       </c>
     </row>
     <row r="279">
@@ -7385,7 +7385,7 @@
         <v>21.0</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.020528288565280387</v>
+        <v>-0.01795215250556691</v>
       </c>
     </row>
     <row r="280">
@@ -7411,7 +7411,7 @@
         <v>21.0</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.041056577130560774</v>
+        <v>-0.03590430501113382</v>
       </c>
     </row>
     <row r="281">
@@ -7434,10 +7434,10 @@
         <v>37.0</v>
       </c>
       <c r="G281" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.007813958140020753</v>
+        <v>-0.007219841951373994</v>
       </c>
     </row>
     <row r="282">
@@ -7460,10 +7460,10 @@
         <v>37.0</v>
       </c>
       <c r="G282" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.015627916280041506</v>
+        <v>-0.014439683902747988</v>
       </c>
     </row>
     <row r="283">
@@ -7486,10 +7486,10 @@
         <v>37.0</v>
       </c>
       <c r="G283" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.03125583256008301</v>
+        <v>-0.028879367805495975</v>
       </c>
     </row>
     <row r="284">
@@ -7512,10 +7512,10 @@
         <v>37.0</v>
       </c>
       <c r="G284" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.009473001383016993</v>
+        <v>-0.0030071639025382384</v>
       </c>
     </row>
     <row r="285">
@@ -7538,10 +7538,10 @@
         <v>37.0</v>
       </c>
       <c r="G285" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H285" t="n">
-        <v>-0.018946002766033986</v>
+        <v>-0.006014327805076477</v>
       </c>
     </row>
     <row r="286">
@@ -7564,10 +7564,10 @@
         <v>37.0</v>
       </c>
       <c r="G286" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.03789200553206797</v>
+        <v>-0.012028655610152953</v>
       </c>
     </row>
     <row r="287">
@@ -7590,10 +7590,10 @@
         <v>37.0</v>
       </c>
       <c r="G287" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H287" t="n">
-        <v>0.013384830913056846</v>
+        <v>0.07711380704616759</v>
       </c>
     </row>
     <row r="288">
@@ -7616,10 +7616,10 @@
         <v>37.0</v>
       </c>
       <c r="G288" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H288" t="n">
-        <v>0.02676966182611369</v>
+        <v>0.15422761409233518</v>
       </c>
     </row>
     <row r="289">
@@ -7642,10 +7642,10 @@
         <v>37.0</v>
       </c>
       <c r="G289" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H289" t="n">
-        <v>0.05353932365222738</v>
+        <v>0.30845522818467036</v>
       </c>
     </row>
   </sheetData>
